--- a/biology/Zoologie/Heteroschizomus_goodnightorum/Heteroschizomus_goodnightorum.xlsx
+++ b/biology/Zoologie/Heteroschizomus_goodnightorum/Heteroschizomus_goodnightorum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heteroschizomus goodnightorum est une espèce de schizomides de la famille des Hubbardiidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Mexique[1]. Elle se rencontre au  Yucatán et au Quintana Roo[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Mexique. Elle se rencontre au  Yucatán et au Quintana Roo.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 9,7 mm et le mâle paratype 6,6 mm[3].
-Les femelles mesurent de 3,0 à 3,6 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 9,7 mm et le mâle paratype 6,6 mm.
+Les femelles mesurent de 3,0 à 3,6 mm.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Charles J. Goodnight et Marie Louise Goodnight[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Charles J. Goodnight et Marie Louise Goodnight.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Rowland, 1973 : A new genus and several new species of Mexican schizomids (Schizomida:Arachnida). Occasional Papers Museum Texas Tech University, no 11, p. 1-23 (texte intégral).</t>
         </is>
